--- a/tests/xls_pipeline_test/output/AFZ1-Fz-S1Q.generic.xlsx
+++ b/tests/xls_pipeline_test/output/AFZ1-Fz-S1Q.generic.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/root/2023/data2rdf/tests/xls_pipeline_test/input/data/AFZ1-Fz-S1Q.xlsm</t>
+          <t>/home/bue/data2rdf/tests/xls_pipeline_test/input/data/AFZ1-Fz-S1Q.xlsm</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/root/2023/data2rdf/tests/xls_pipeline_test/input/data/AFZ1-Fz-S1Q.xlsm</t>
+          <t>/home/bue/data2rdf/tests/xls_pipeline_test/input/data/AFZ1-Fz-S1Q.xlsm</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ad390bafe8f9e0bd37f45da983ff22d25c35e93e23b11a5a39b546bb6760263a</t>
+          <t>50b05a2a-eab6-4985-97cc-3e423910a2c4</t>
         </is>
       </c>
     </row>

--- a/tests/xls_pipeline_test/output/AFZ1-Fz-S1Q.generic.xlsx
+++ b/tests/xls_pipeline_test/output/AFZ1-Fz-S1Q.generic.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>50b05a2a-eab6-4985-97cc-3e423910a2c4</t>
+          <t>d6b8a28c-0a63-4d36-861f-70e436aebff9</t>
         </is>
       </c>
     </row>

--- a/tests/xls_pipeline_test/output/AFZ1-Fz-S1Q.generic.xlsx
+++ b/tests/xls_pipeline_test/output/AFZ1-Fz-S1Q.generic.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>d6b8a28c-0a63-4d36-861f-70e436aebff9</t>
+          <t>b098d828-2805-42d2-a8f0-7f4b831d5096</t>
         </is>
       </c>
     </row>

--- a/tests/xls_pipeline_test/output/AFZ1-Fz-S1Q.generic.xlsx
+++ b/tests/xls_pipeline_test/output/AFZ1-Fz-S1Q.generic.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.test2.de</t>
+          <t>https://www.example.org/</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>b098d828-2805-42d2-a8f0-7f4b831d5096</t>
+          <t>2860e570-e378-405a-ba70-8a29555e991d</t>
         </is>
       </c>
     </row>
